--- a/Project-S/Assets/Excel/ExcelFile/CropsTable.xlsx
+++ b/Project-S/Assets/Excel/ExcelFile/CropsTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Project-S\Project-S\Assets\Excel\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fork\Project-S\Project-S\Assets\Excel\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9CB927-9329-4C34-AEAE-0B1E1B5FF129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671482C0-C439-4C8E-A432-E942641E51F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31935" yWindow="3120" windowWidth="24750" windowHeight="11835" xr2:uid="{CF9265C2-E660-4259-9EC9-ACAD49CC0907}"/>
+    <workbookView xWindow="30330" yWindow="2250" windowWidth="7590" windowHeight="15435" xr2:uid="{CF9265C2-E660-4259-9EC9-ACAD49CC0907}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="1" r:id="rId1"/>
@@ -36,41 +36,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>index</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>1;2;3</t>
+  </si>
+  <si>
+    <t>growthDay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
+    <t>growthWeather</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>craftMaterial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>materialValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>salePossible</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saleGold</t>
+    <t>harvestItem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,22 +420,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFD11C7-69AF-4802-8E3E-219D67D2BA99}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,30 +444,30 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2">
+        <v>100001</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1000000</v>
+      <c r="E2">
+        <v>1020000</v>
       </c>
     </row>
   </sheetData>

--- a/Project-S/Assets/Excel/ExcelFile/CropsTable.xlsx
+++ b/Project-S/Assets/Excel/ExcelFile/CropsTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fork\Project-S\Project-S\Assets\Excel\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671482C0-C439-4C8E-A432-E942641E51F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD2EC2B-1331-4CD3-803D-D4A642F5FA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30330" yWindow="2250" windowWidth="7590" windowHeight="15435" xr2:uid="{CF9265C2-E660-4259-9EC9-ACAD49CC0907}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CF9265C2-E660-4259-9EC9-ACAD49CC0907}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>index</t>
   </si>
@@ -48,15 +48,15 @@
   </si>
   <si>
     <t>growthDay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>growthWeather</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileName</t>
+  </si>
+  <si>
+    <t>growthSeason</t>
   </si>
   <si>
     <t>harvestItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -420,9 +420,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFD11C7-69AF-4802-8E3E-219D67D2BA99}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -430,13 +430,13 @@
   <cols>
     <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,8 +452,11 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -463,10 +466,13 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1020000</v>
       </c>
     </row>

--- a/Project-S/Assets/Excel/ExcelFile/CropsTable.xlsx
+++ b/Project-S/Assets/Excel/ExcelFile/CropsTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fork\Project-S\Project-S\Assets\Excel\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Project-S\Project-S\Assets\Excel\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD2EC2B-1331-4CD3-803D-D4A642F5FA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D25347-01F2-458D-981F-85AC6ACEA12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CF9265C2-E660-4259-9EC9-ACAD49CC0907}"/>
+    <workbookView xWindow="31110" yWindow="2850" windowWidth="24750" windowHeight="11835" xr2:uid="{CF9265C2-E660-4259-9EC9-ACAD49CC0907}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>index</t>
   </si>
@@ -57,6 +57,10 @@
   </si>
   <si>
     <t>harvestItem</t>
+  </si>
+  <si>
+    <t>3;2;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -422,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFD11C7-69AF-4802-8E3E-219D67D2BA99}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -466,8 +470,8 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>3</v>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>

--- a/Project-S/Assets/Excel/ExcelFile/CropsTable.xlsx
+++ b/Project-S/Assets/Excel/ExcelFile/CropsTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Project-S\Project-S\Assets\Excel\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fork\Project-S\Project-S\Assets\Excel\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D25347-01F2-458D-981F-85AC6ACEA12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB75805-4225-46BB-A1DC-CA1B1028A1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31110" yWindow="2850" windowWidth="24750" windowHeight="11835" xr2:uid="{CF9265C2-E660-4259-9EC9-ACAD49CC0907}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CF9265C2-E660-4259-9EC9-ACAD49CC0907}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>index</t>
   </si>
@@ -59,8 +59,19 @@
     <t>harvestItem</t>
   </si>
   <si>
-    <t>3;2;3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>harvestItemValue</t>
+  </si>
+  <si>
+    <t>harvestItemPercent</t>
+  </si>
+  <si>
+    <t>CropsTomato</t>
+  </si>
+  <si>
+    <t>2;3</t>
+  </si>
+  <si>
+    <t>50;50</t>
   </si>
 </sst>
 </file>
@@ -424,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFD11C7-69AF-4802-8E3E-219D67D2BA99}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -436,11 +447,11 @@
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,8 +470,14 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -471,13 +488,19 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2">
         <v>1020000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
